--- a/media/SLICE/MIS/FEB 22/SLICE PERFORMANCE.xlsx
+++ b/media/SLICE/MIS/FEB 22/SLICE PERFORMANCE.xlsx
@@ -553,10 +553,10 @@
         <v>282</v>
       </c>
       <c r="D2" t="n">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E2" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>9214208</v>
+        <v>9051688</v>
       </c>
       <c r="J2" t="n">
-        <v>3746513</v>
+        <v>3909033</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>56261</v>
       </c>
       <c r="N2" t="n">
-        <v>70.79000000000001</v>
+        <v>69.54000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>28.78</v>
+        <v>30.03</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>0.43</v>
       </c>
       <c r="S2" t="n">
-        <v>28.78</v>
+        <v>30.03</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1688836</v>
+        <v>1794925</v>
       </c>
     </row>
     <row r="3">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>4146037</v>
@@ -644,10 +644,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>321546</v>
+        <v>353390</v>
       </c>
       <c r="M3" t="n">
-        <v>151785</v>
+        <v>119941</v>
       </c>
       <c r="N3" t="n">
         <v>89.75</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.96</v>
+        <v>7.65</v>
       </c>
       <c r="R3" t="n">
-        <v>3.29</v>
+        <v>2.6</v>
       </c>
       <c r="S3" t="n">
-        <v>6.96</v>
+        <v>7.65</v>
       </c>
       <c r="T3" t="n">
-        <v>6.96</v>
+        <v>7.65</v>
       </c>
       <c r="U3" t="n">
-        <v>278583</v>
+        <v>283700</v>
       </c>
     </row>
     <row r="4">

--- a/media/SLICE/MIS/FEB 22/SLICE PERFORMANCE.xlsx
+++ b/media/SLICE/MIS/FEB 22/SLICE PERFORMANCE.xlsx
@@ -556,7 +556,7 @@
         <v>187</v>
       </c>
       <c r="E2" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -565,13 +565,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>9051688</v>
       </c>
       <c r="J2" t="n">
-        <v>3909033</v>
+        <v>3965294</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>56261</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>69.54000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>30.03</v>
+        <v>30.46</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>30.03</v>
+        <v>30.46</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -623,52 +623,52 @@
         <v>63</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>4146037</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>353390</v>
+        <v>433331</v>
       </c>
       <c r="M3" t="n">
-        <v>119941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>89.75</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.65</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>7.65</v>
+        <v>10.25</v>
       </c>
       <c r="T3" t="n">
-        <v>7.65</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="U3" t="n">
         <v>283700</v>
